--- a/Blevins_etal_supplementary_WB.xlsx
+++ b/Blevins_etal_supplementary_WB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="header_legend" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t xml:space="preserve">transcripts_per_species: Contains the number of annotated/novel transcripts for each species (no expression cutoff)</t>
   </si>
@@ -45,6 +45,33 @@
     <t xml:space="preserve">An integer; the number of annotated transcripts</t>
   </si>
   <si>
+    <t xml:space="preserve">comparing_methodologies: A table counting the number of transcripts identified in each conservation class when using different approaches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A string; a description of the methodology applied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A string; either Novel or Annotated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conservation_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A string; either Conserved, Genus specific, or De novo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number_of_transcripts_over_15_TPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An integer; the number of transcripts over the cutoff of 15 TPM in each category</t>
+  </si>
+  <si>
     <t xml:space="preserve">S. cerevisiae</t>
   </si>
   <si>
@@ -76,18 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve">Schizo. pombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Approach</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conservation_level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_of_transcripts_over_15_TPM</t>
   </si>
   <si>
     <t xml:space="preserve">Transcriptomics and annotations in all species</t>
@@ -115,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -160,19 +175,41 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="10.5"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -219,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,19 +281,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,15 +326,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="106.29"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
@@ -324,13 +373,61 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -350,144 +447,144 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="8" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="7" t="n">
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="10" t="n">
         <v>697</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="10" t="n">
         <v>6290</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="7" t="n">
+    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="n">
         <v>630</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="10" t="n">
         <v>6199</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="7" t="n">
+    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="10" t="n">
         <v>730</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="10" t="n">
         <v>5997</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7" t="n">
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="10" t="n">
         <v>722</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="10" t="n">
         <v>5891</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="7" t="n">
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10" t="n">
         <v>432</v>
       </c>
-      <c r="C6" s="7" t="n">
+      <c r="C6" s="10" t="n">
         <v>5994</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="7" t="n">
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10" t="n">
         <v>267</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="10" t="n">
         <v>5870</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="7" t="n">
+    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="10" t="n">
         <v>929</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="10" t="n">
         <v>5412</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="7" t="n">
+    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="n">
         <v>1215</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="10" t="n">
         <v>5523</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="7" t="n">
+    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="n">
         <v>1253</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="10" t="n">
         <v>5498</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="n">
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="10" t="n">
         <v>868</v>
       </c>
-      <c r="C11" s="7" t="n">
+      <c r="C11" s="10" t="n">
         <v>6116</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="7" t="n">
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="10" t="n">
         <v>413</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="10" t="n">
         <v>6868</v>
       </c>
     </row>
@@ -509,282 +606,282 @@
   </sheetPr>
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="47.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="23.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="33.62"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="11" width="47.37"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="11" width="23.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="33.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="11" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="8" t="n">
+    <row r="1" s="12" customFormat="true" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="8" t="n">
+    <row r="3" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11" t="n">
         <v>4306</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8" t="n">
+    <row r="4" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="8" t="n">
+    <row r="5" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="n">
         <v>4304</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="8" t="n">
+    <row r="6" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="11" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="8" t="n">
+    <row r="7" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="11" t="n">
         <v>4335</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="8" t="n">
+    <row r="8" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="8" t="n">
+    <row r="9" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="8" t="n">
+    <row r="10" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="8" t="n">
+    <row r="11" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="11" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="n">
+    <row r="12" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="11" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="8" t="n">
+    <row r="13" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    <row r="14" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="B14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="8" t="s">
+    <row r="15" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="B15" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="8" t="n">
+    <row r="16" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="11" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="8" t="n">
+    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="11" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="8" t="n">
+    <row r="18" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="11" t="n">
         <v>336</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="8" t="n">
+    <row r="19" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="11" t="n">
         <v>97</v>
       </c>
     </row>
